--- a/cleaned/canara_robeco_mutual_fund_portfolio.xlsx
+++ b/cleaned/canara_robeco_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,12 +511,12 @@
           <t>INE090A01021</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>480000</t>
@@ -517,17 +532,22 @@
           <t>4.18</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -544,12 +564,12 @@
           <t>INE002A01018</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Petroleum Products</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>403000</t>
@@ -565,17 +585,22 @@
           <t>3.55</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -592,12 +617,12 @@
           <t>INE040A01034</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>298800</t>
@@ -613,17 +638,22 @@
           <t>3.53</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -640,12 +670,12 @@
           <t>INE009A01021</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>261000</t>
@@ -661,17 +691,22 @@
           <t>3.41</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -688,12 +723,12 @@
           <t>INE397D01024</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>233200</t>
@@ -709,17 +744,22 @@
           <t>2.64</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -736,12 +776,12 @@
           <t>INE018A01030</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>103500</t>
@@ -757,17 +797,22 @@
           <t>2.57</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -784,12 +829,12 @@
           <t>INE062A01020</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>391000</t>
@@ -805,17 +850,22 @@
           <t>2.1</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -832,12 +882,12 @@
           <t>INE134E01011</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>637000</t>
@@ -853,17 +903,22 @@
           <t>1.87</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -880,12 +935,12 @@
           <t>INE860A01027</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>132500</t>
@@ -901,17 +956,22 @@
           <t>1.59</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -928,12 +988,12 @@
           <t>INE238A01034</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>229125</t>
@@ -949,17 +1009,22 @@
           <t>1.57</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -976,12 +1041,12 @@
           <t>INE733E01010</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>643000</t>
@@ -997,17 +1062,22 @@
           <t>1.45</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1024,12 +1094,12 @@
           <t>INE494B01023</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>82000</t>
@@ -1045,17 +1115,22 @@
           <t>1.4</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1072,12 +1147,12 @@
           <t>INE101A01026</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>65500</t>
@@ -1093,17 +1168,22 @@
           <t>1.36</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1120,12 +1200,12 @@
           <t>INE646L01027</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Transport Services</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>42300</t>
@@ -1141,17 +1221,22 @@
           <t>1.27</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1168,12 +1253,12 @@
           <t>INE263A01024</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>603950</t>
@@ -1189,17 +1274,22 @@
           <t>1.23</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1216,12 +1306,12 @@
           <t>INE765G01017</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>93000</t>
@@ -1237,17 +1327,22 @@
           <t>1.2</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1264,12 +1359,12 @@
           <t>INE522F01014</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Consumable Fuels</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>417100</t>
@@ -1285,17 +1380,22 @@
           <t>1.15</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1312,12 +1412,12 @@
           <t>INE154A01025</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Diversified Fmcg</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>365000</t>
@@ -1333,17 +1433,22 @@
           <t>1.14</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1360,12 +1465,12 @@
           <t>INE200M01039</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>285000</t>
@@ -1381,17 +1486,22 @@
           <t>1.06</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1408,12 +1518,12 @@
           <t>INE059A01026</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>98000</t>
@@ -1429,17 +1539,22 @@
           <t>1.01</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1456,12 +1571,12 @@
           <t>INE038A01020</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Non - Ferrous Metals</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>243500</t>
@@ -1477,17 +1592,22 @@
           <t>1.01</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1504,12 +1624,12 @@
           <t>INE108V01019</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Commercial Services &amp; Supplies</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>210000</t>
@@ -1525,17 +1645,22 @@
           <t>0.97</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1552,12 +1677,12 @@
           <t>INE123W01016</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>93000</t>
@@ -1573,17 +1698,22 @@
           <t>0.96</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1600,12 +1730,12 @@
           <t>INE149A01033</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>87500</t>
@@ -1621,17 +1751,22 @@
           <t>0.92</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1648,12 +1783,12 @@
           <t>INE758T01015</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>600000</t>
@@ -1669,17 +1804,22 @@
           <t>0.92</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1696,12 +1836,12 @@
           <t>INE361B01024</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>23150</t>
@@ -1717,17 +1857,22 @@
           <t>0.9</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1744,12 +1889,12 @@
           <t>INE299U01018</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>364000</t>
@@ -1765,17 +1910,22 @@
           <t>0.87</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1792,12 +1942,12 @@
           <t>INE791I01019</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Realty</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>105000</t>
@@ -1813,17 +1963,22 @@
           <t>0.86</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1840,12 +1995,12 @@
           <t>INE562A01011</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>210000</t>
@@ -1861,17 +2016,22 @@
           <t>0.81</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1888,12 +2048,12 @@
           <t>INE721A01047</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>206500</t>
@@ -1905,17 +2065,22 @@
           <t>0.78</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1932,12 +2097,12 @@
           <t>INE732I01013</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Capital Markets</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>45000</t>
@@ -1953,17 +2118,22 @@
           <t>0.73</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -1980,12 +2150,12 @@
           <t>INE245A01021</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>282000</t>
@@ -2001,17 +2171,22 @@
           <t>0.71</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2028,12 +2203,12 @@
           <t>INE878B01027</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Industrial Products</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>25500</t>
@@ -2049,17 +2224,22 @@
           <t>0.71</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2076,12 +2256,12 @@
           <t>INE823G01014</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>20650</t>
@@ -2097,17 +2277,22 @@
           <t>0.69</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2124,12 +2309,12 @@
           <t>INE288B01029</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>42000</t>
@@ -2145,17 +2330,22 @@
           <t>0.68</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2172,12 +2362,12 @@
           <t>INE775A01035</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Auto Components</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>690000</t>
@@ -2193,17 +2383,22 @@
           <t>0.68</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2220,12 +2415,12 @@
           <t>INE429E01023</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>40000</t>
@@ -2241,17 +2436,22 @@
           <t>0.67</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2268,12 +2468,12 @@
           <t>INE572E01012</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>106000</t>
@@ -2289,17 +2489,22 @@
           <t>0.65</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2316,12 +2521,12 @@
           <t>INE0DK501011</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>395000</t>
@@ -2337,17 +2542,22 @@
           <t>0.64</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2364,12 +2574,12 @@
           <t>INE410B01037</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>52500</t>
@@ -2385,17 +2595,22 @@
           <t>0.61</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2412,12 +2627,12 @@
           <t>INE854D01024</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>Beverages</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>58500</t>
@@ -2433,17 +2648,22 @@
           <t>0.58</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2460,12 +2680,12 @@
           <t>INE269A01021</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>154000</t>
@@ -2481,17 +2701,22 @@
           <t>0.57</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2508,12 +2733,12 @@
           <t>INE481G01011</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>7000</t>
@@ -2529,17 +2754,22 @@
           <t>0.56</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2556,12 +2786,12 @@
           <t>INE388Y01029</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>475000</t>
@@ -2577,17 +2807,22 @@
           <t>0.56</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2604,12 +2839,12 @@
           <t>INE298A01020</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Industrial Products</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>27500</t>
@@ -2625,17 +2860,22 @@
           <t>0.56</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2652,12 +2892,12 @@
           <t>INE296A01024</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>10000</t>
@@ -2673,17 +2913,22 @@
           <t>0.55</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2700,12 +2945,12 @@
           <t>INE191H01014</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>65500</t>
@@ -2721,17 +2966,22 @@
           <t>0.5</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2748,12 +2998,12 @@
           <t>INE067A01029</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>112500</t>
@@ -2769,17 +3019,22 @@
           <t>0.5</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2796,12 +3051,12 @@
           <t>INE029A01011</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>Petroleum Products</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>270500</t>
@@ -2817,17 +3072,22 @@
           <t>0.49</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2844,12 +3104,12 @@
           <t>INE112L01020</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>Healthcare Services</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>39000</t>
@@ -2865,17 +3125,22 @@
           <t>0.49</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2892,12 +3157,12 @@
           <t>INE213A01029</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>Oil</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>264750</t>
@@ -2913,17 +3178,22 @@
           <t>0.48</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2940,12 +3210,12 @@
           <t>INE495P01012</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>Food Products</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>46300</t>
@@ -2961,17 +3231,22 @@
           <t>0.47</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -2988,12 +3263,12 @@
           <t>INE668F01031</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>Household Products</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>168250</t>
@@ -3009,17 +3284,22 @@
           <t>0.47</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3036,12 +3316,12 @@
           <t>INE356A01018</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>22000</t>
@@ -3057,17 +3337,22 @@
           <t>0.44</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3084,12 +3369,12 @@
           <t>INE585B01010</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>5000</t>
@@ -3105,17 +3390,22 @@
           <t>0.43</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3132,12 +3422,12 @@
           <t>INE955V01021</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>126500</t>
@@ -3153,17 +3443,22 @@
           <t>0.42</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3180,12 +3475,12 @@
           <t>INE258G01013</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>116000</t>
@@ -3201,17 +3496,22 @@
           <t>0.41</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3228,12 +3528,12 @@
           <t>INE192R01011</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>16000</t>
@@ -3249,17 +3549,22 @@
           <t>0.41</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3276,12 +3581,12 @@
           <t>INE421D01022</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>Agricultural Food &amp; Other Products</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>92500</t>
@@ -3297,17 +3602,22 @@
           <t>0.4</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3324,12 +3634,12 @@
           <t>INE0FS801015</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>Auto Components</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>1021000</t>
@@ -3345,17 +3655,22 @@
           <t>0.4</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3372,12 +3687,12 @@
           <t>INE226A01021</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>44000</t>
@@ -3393,17 +3708,22 @@
           <t>0.39</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3420,12 +3740,12 @@
           <t>INE389H01022</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>64000</t>
@@ -3441,17 +3761,22 @@
           <t>0.37</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3468,12 +3793,12 @@
           <t>INE825V01034</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>51500</t>
@@ -3489,17 +3814,22 @@
           <t>0.33</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3516,12 +3846,12 @@
           <t>INE461C01038</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>170000</t>
@@ -3537,17 +3867,22 @@
           <t>0.33</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3564,12 +3899,12 @@
           <t>INE498B01024</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>77000</t>
@@ -3585,17 +3920,22 @@
           <t>0.31</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3612,12 +3952,12 @@
           <t>INE438A01022</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
         <is>
           <t>Auto Components</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>20000</t>
@@ -3633,17 +3973,22 @@
           <t>0.06</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3660,12 +4005,12 @@
           <t>INE379A01028</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>36500</t>
@@ -3681,17 +4026,22 @@
           <t>0.04</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related              </t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3708,14 +4058,10 @@
           <t>INE756I07EL8</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>7.95</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3729,17 +4075,22 @@
           <t>5.22</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments              </t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="n">
+        <v>0.0794999971985817</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3756,14 +4107,10 @@
           <t>INE296A07SR9</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>7.84</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3777,17 +4124,22 @@
           <t>3.49</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments              </t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="n">
+        <v>0.07840000092983246</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3804,14 +4156,10 @@
           <t>INE296A07TB1</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>7.86</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3825,17 +4173,22 @@
           <t>2.09</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments              </t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="n">
+        <v>0.07859999686479568</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3852,14 +4205,10 @@
           <t>INE115A07QV7</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>7.5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3873,17 +4222,22 @@
           <t>1.75</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments              </t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="n">
+        <v>0.07499999552965164</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3900,14 +4254,10 @@
           <t>INE556F08KG3</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>7.75</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3921,17 +4271,22 @@
           <t>1.74</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Debt Instruments              </t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="n">
+        <v>0.07750000059604645</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Debt Instruments  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3948,14 +4303,10 @@
           <t>IN002023Z562</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sovereign</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>6.43</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3969,17 +4320,22 @@
           <t>1.72</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bill              </t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="n">
+        <v>0.06429999321699142</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Treasury Bill  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -3996,14 +4352,10 @@
           <t>IN002024Z172</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sovereign</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>6.63</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4017,17 +4369,22 @@
           <t>1.69</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bill              </t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="n">
+        <v>0.06629999727010727</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Treasury Bill  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4044,14 +4401,10 @@
           <t>IN002024Z396</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sovereign</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>6.57</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4065,17 +4418,22 @@
           <t>0.33</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bill              </t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="n">
+        <v>0.06570000201463699</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Treasury Bill  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4092,14 +4450,10 @@
           <t>IN0020240019</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
         <is>
           <t>Sovereign</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>6.86</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4113,17 +4467,22 @@
           <t>3.56</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Bonds              </t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="n">
+        <v>0.06859999895095825</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Government Bonds  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4140,14 +4499,10 @@
           <t>IN0020240126</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
         <is>
           <t>Sovereign</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>6.81</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4161,17 +4516,22 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Bonds              </t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="n">
+        <v>0.06809999793767929</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Government Bonds  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4188,14 +4548,10 @@
           <t>IN0020230051</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
         <is>
           <t>Sovereign</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>7.15</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4209,17 +4565,22 @@
           <t>1.8</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Bonds              </t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="n">
+        <v>0.07149999588727951</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Government Bonds  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4236,14 +4597,10 @@
           <t>IN0020230036</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
         <is>
           <t>Sovereign</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>6.78</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4257,17 +4614,22 @@
           <t>1.07</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Bonds              </t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="n">
+        <v>0.06780000030994415</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Government Bonds  NAN nan nan nan nan nan 00 nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4284,16 +4646,12 @@
           <t>INE557F08FP2</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>2000</t>
@@ -4309,17 +4667,22 @@
           <t>8.52</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Debt Instruments              Credit Risk  Relatively Low Class A Moderate Class B Relatively High Class C</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
+      <c r="H81" t="n">
+        <v>0.0754999965429306</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debt Instruments  NAN nan nan nan nan 00 nan nan nan nan nan nan Credit Risk  Relatively Low  Moderate  Relatively High </t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4336,16 +4699,12 @@
           <t>INE020B08EF4</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>2000</t>
@@ -4361,17 +4720,22 @@
           <t>8.5</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Debt Instruments              Credit Risk  Relatively Low Class A Moderate Class B Relatively High Class C</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
+      <c r="H82" t="n">
+        <v>0.07660000026226044</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debt Instruments  NAN nan nan nan nan 00 nan nan nan nan nan nan Credit Risk  Relatively Low  Moderate  Relatively High </t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4388,16 +4752,12 @@
           <t>INE040A08393</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>150</t>
@@ -4413,17 +4773,22 @@
           <t>6.55</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Debt Instruments              Credit Risk  Relatively Low Class A Moderate Class B Relatively High Class C</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
+      <c r="H83" t="n">
+        <v>0.07609999924898148</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debt Instruments  NAN nan nan nan nan 00 nan nan nan nan nan nan Credit Risk  Relatively Low  Moderate  Relatively High </t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4440,16 +4805,12 @@
           <t>INE053F08221</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>150</t>
@@ -4465,17 +4826,22 @@
           <t>6.54</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Debt Instruments              Credit Risk  Relatively Low Class A Moderate Class B Relatively High Class C</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
+      <c r="H84" t="n">
+        <v>0.07209999859333038</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debt Instruments  NAN nan nan nan nan 00 nan nan nan nan nan nan Credit Risk  Relatively Low  Moderate  Relatively High </t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4492,16 +4858,12 @@
           <t>INE115A07QR5</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>1500</t>
@@ -4517,17 +4879,22 @@
           <t>6.45</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Debt Instruments              Credit Risk  Relatively Low Class A Moderate Class B Relatively High Class C</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
+      <c r="H85" t="n">
+        <v>0.07499999552965164</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debt Instruments  NAN nan nan nan nan 00 nan nan nan nan nan nan Credit Risk  Relatively Low  Moderate  Relatively High </t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4544,16 +4911,12 @@
           <t>INE556F08KG3</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>1500</t>
@@ -4569,17 +4932,22 @@
           <t>6.37</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Debt Instruments              Credit Risk  Relatively Low Class A Moderate Class B Relatively High Class C</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
+      <c r="H86" t="n">
+        <v>0.07750000059604645</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debt Instruments  NAN nan nan nan nan 00 nan nan nan nan nan nan Credit Risk  Relatively Low  Moderate  Relatively High </t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4596,16 +4964,12 @@
           <t>INE848E07AL0</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
         <is>
           <t>CARE AAA</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>150</t>
@@ -4621,17 +4985,22 @@
           <t>6.36</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Debt Instruments              Credit Risk  Relatively Low Class A Moderate Class B Relatively High Class C</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
+      <c r="H87" t="n">
+        <v>0.07489999383687973</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debt Instruments  NAN nan nan nan nan 00 nan nan nan nan nan nan Credit Risk  Relatively Low  Moderate  Relatively High </t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4648,16 +5017,12 @@
           <t>INE261F08DA8</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
         <is>
           <t>ICRA AAA</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>150</t>
@@ -4673,17 +5038,22 @@
           <t>6.26</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Debt Instruments              Credit Risk  Relatively Low Class A Moderate Class B Relatively High Class C</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
+      <c r="H88" t="n">
+        <v>0.07360000163316727</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debt Instruments  NAN nan nan nan nan 00 nan nan nan nan nan nan Credit Risk  Relatively Low  Moderate  Relatively High </t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4700,16 +5070,12 @@
           <t>INE756I07EN4</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>100</t>
@@ -4725,17 +5091,22 @@
           <t>4.25</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Debt Instruments              Credit Risk  Relatively Low Class A Moderate Class B Relatively High Class C</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
+      <c r="H89" t="n">
+        <v>0.07919999957084656</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debt Instruments  NAN nan nan nan nan 00 nan nan nan nan nan nan Credit Risk  Relatively Low  Moderate  Relatively High </t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4752,16 +5123,12 @@
           <t>INE134E08LD7</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>7.78</t>
-        </is>
-      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>100</t>
@@ -4777,17 +5144,22 @@
           <t>4.22</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Debt Instruments              Credit Risk  Relatively Low Class A Moderate Class B Relatively High Class C</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
+      <c r="H90" t="n">
+        <v>0.07779999822378159</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debt Instruments  NAN nan nan nan nan 00 nan nan nan nan nan nan Credit Risk  Relatively Low  Moderate  Relatively High </t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4804,16 +5176,12 @@
           <t>INE053F07AY7</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>7.32</t>
-        </is>
-      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>50</t>
@@ -4829,17 +5197,22 @@
           <t>2.2</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Debt Instruments              Credit Risk  Relatively Low Class A Moderate Class B Relatively High Class C</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
+      <c r="H91" t="n">
+        <v>0.07320000231266022</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debt Instruments  NAN nan nan nan nan 00 nan nan nan nan nan nan Credit Risk  Relatively Low  Moderate  Relatively High </t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4856,16 +5229,12 @@
           <t>INE134E08KR9</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
         <is>
           <t>CRISIL AAA</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>50</t>
@@ -4881,17 +5250,22 @@
           <t>2.16</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Debt Instruments              Credit Risk  Relatively Low Class A Moderate Class B Relatively High Class C</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
+      <c r="H92" t="n">
+        <v>0.07339999824762344</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debt Instruments  NAN nan nan nan nan 00 nan nan nan nan nan nan Credit Risk  Relatively Low  Moderate  Relatively High </t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4908,16 +5282,12 @@
           <t>INE237A161Y7</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
         <is>
           <t>CRISIL A1+</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>400</t>
@@ -4933,17 +5303,22 @@
           <t>8.21</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit                 </t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
+      <c r="H93" t="n">
+        <v>0.07609999924898148</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan 00 nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -4960,16 +5335,12 @@
           <t>INE090AD6170</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
         <is>
           <t>ICRA A1+</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>300</t>
@@ -4985,17 +5356,22 @@
           <t>6.16</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit                 </t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
+      <c r="H94" t="n">
+        <v>0.07599999755620956</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan 00 nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -5012,16 +5388,12 @@
           <t>IN002024Z396</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sovereign</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>100000</t>
@@ -5037,17 +5409,22 @@
           <t>0.4</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bill                 </t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
+      <c r="H95" t="n">
+        <v>0.06570000201463699</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Treasury Bill  NAN nan nan nan nan 00 nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="M95" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -5064,16 +5441,12 @@
           <t>IN0020240050</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>1000000</t>
@@ -5089,17 +5462,22 @@
           <t>4.32</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Bonds                 </t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
+      <c r="H96" t="n">
+        <v>0.06739999353885651</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Government Bonds  NAN nan nan nan nan 00 nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -5116,16 +5494,12 @@
           <t>IN0020240126</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>750000</t>
@@ -5141,17 +5515,22 @@
           <t>3.21</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Bonds                 </t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
+      <c r="H97" t="n">
+        <v>0.06809999793767929</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Government Bonds  NAN nan nan nan nan 00 nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -5168,16 +5547,12 @@
           <t>IN0020230051</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>500000</t>
@@ -5193,17 +5568,22 @@
           <t>2.2</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Bonds                 </t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
+      <c r="H98" t="n">
+        <v>0.07149999588727951</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Government Bonds  NAN nan nan nan nan 00 nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -5220,16 +5600,12 @@
           <t>IN0020200120</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
         <is>
           <t>Sovereign</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>500000</t>
@@ -5245,17 +5621,22 @@
           <t>2.18</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Government Bonds                 </t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
+      <c r="H99" t="n">
+        <v>0.07519999891519547</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Government Bonds  NAN nan nan nan nan 00 nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
@@ -5272,16 +5653,12 @@
           <t>INF0RQ622028</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
         <is>
           <t>Alternative Investment Fund</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>1059.925</t>
@@ -5297,17 +5674,22 @@
           <t>0.49</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alternative Investment Fund                 </t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
+      <c r="H100" t="n">
+        <v>0.06639999896287918</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Alternative Investment Fund  NAN nan nan nan nan 00 nan nan nan nan nan nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>Canara Robeco Mutual Fund</t>
         </is>
